--- a/Nada.UI/TestRegions.xlsx
+++ b/Nada.UI/TestRegions.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,16 +439,16 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>12.1</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>12.2</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>12.3</v>
+        <v>90</v>
       </c>
       <c r="F2">
-        <v>12.4</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -462,16 +462,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>12.5</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>12.6</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/Nada.UI/TestRegions.xlsx
+++ b/Nada.UI/TestRegions.xlsx
@@ -22,12 +22,6 @@
     <t>Alternate spelling names</t>
   </si>
   <si>
-    <t>WHO geo code - latitude</t>
-  </si>
-  <si>
-    <t>WHO geo code - longitude</t>
-  </si>
-  <si>
     <t>Other geo code - latitude</t>
   </si>
   <si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>rural text</t>
+  </si>
+  <si>
+    <t>Latitude (if applicable)</t>
+  </si>
+  <si>
+    <t>Longitude (if applicable)</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,65 +416,65 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2">
-        <v>90</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
